--- a/input_data/admin_data/PER/_clean/total-PER.xlsx
+++ b/input_data/admin_data/PER/_clean/total-PER.xlsx
@@ -15,7 +15,250 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -306,34 +549,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
@@ -341,7 +584,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>32052328</v>
@@ -371,7 +614,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>32052328</v>
@@ -401,7 +644,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>32052328</v>
@@ -431,7 +674,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>32052328</v>
@@ -461,7 +704,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>32052328</v>
@@ -491,7 +734,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>32052328</v>
@@ -521,7 +764,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>32052328</v>
@@ -551,7 +794,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>32052328</v>
@@ -581,7 +824,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>32052328</v>
@@ -611,7 +854,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>32052328</v>
@@ -641,7 +884,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>32052328</v>
@@ -671,7 +914,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>32052328</v>
@@ -701,7 +944,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>32052328</v>
@@ -731,7 +974,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>32052328</v>
@@ -761,7 +1004,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>32052328</v>
@@ -791,7 +1034,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>32052328</v>
@@ -821,7 +1064,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>32052328</v>
@@ -859,34 +1102,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
@@ -894,7 +1137,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>32281556</v>
@@ -924,7 +1167,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>32281556</v>
@@ -954,7 +1197,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>32281556</v>
@@ -984,7 +1227,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>32281556</v>
@@ -1014,7 +1257,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>32281556</v>
@@ -1044,7 +1287,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>32281556</v>
@@ -1074,7 +1317,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C8">
         <v>32281556</v>
@@ -1104,7 +1347,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C9">
         <v>32281556</v>
@@ -1134,7 +1377,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C10">
         <v>32281556</v>
@@ -1164,7 +1407,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>32281556</v>
@@ -1194,7 +1437,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C12">
         <v>32281556</v>
@@ -1224,7 +1467,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C13">
         <v>32281556</v>
@@ -1254,7 +1497,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="C14">
         <v>32281556</v>
@@ -1284,7 +1527,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C15">
         <v>32281556</v>
@@ -1314,7 +1557,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C16">
         <v>32281556</v>
@@ -1344,7 +1587,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="C17">
         <v>32281556</v>
@@ -1374,7 +1617,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C18">
         <v>32281556</v>
@@ -1412,34 +1655,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -1447,7 +1690,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="C2">
         <v>32552004</v>
@@ -1477,7 +1720,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>32552004</v>
@@ -1507,7 +1750,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C4">
         <v>32552004</v>
@@ -1537,7 +1780,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="C5">
         <v>32552004</v>
@@ -1567,7 +1810,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C6">
         <v>32552004</v>
@@ -1597,7 +1840,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C7">
         <v>32552004</v>
@@ -1627,7 +1870,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="C8">
         <v>32552004</v>
@@ -1657,7 +1900,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="C9">
         <v>32552004</v>
@@ -1687,7 +1930,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="C10">
         <v>32552004</v>
@@ -1717,7 +1960,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="C11">
         <v>32552004</v>
@@ -1747,7 +1990,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="C12">
         <v>32552004</v>
@@ -1777,7 +2020,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="C13">
         <v>32552004</v>
@@ -1807,7 +2050,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C14">
         <v>32552004</v>
@@ -1837,7 +2080,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <v>32552004</v>
@@ -1867,7 +2110,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C16">
         <v>32552004</v>
@@ -1897,7 +2140,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="C17">
         <v>32552004</v>
@@ -1927,7 +2170,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="C18">
         <v>32552004</v>

--- a/input_data/admin_data/PER/_clean/total-PER.xlsx
+++ b/input_data/admin_data/PER/_clean/total-PER.xlsx
@@ -15,7 +15,493 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -549,34 +1035,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="I1" t="s">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
@@ -584,7 +1070,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="C2">
         <v>32052328</v>
@@ -614,7 +1100,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="C3">
         <v>32052328</v>
@@ -644,7 +1130,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="C4">
         <v>32052328</v>
@@ -674,7 +1160,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>248</v>
       </c>
       <c r="C5">
         <v>32052328</v>
@@ -704,7 +1190,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="C6">
         <v>32052328</v>
@@ -734,7 +1220,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="C7">
         <v>32052328</v>
@@ -764,7 +1250,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="C8">
         <v>32052328</v>
@@ -794,7 +1280,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="C9">
         <v>32052328</v>
@@ -824,7 +1310,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>253</v>
       </c>
       <c r="C10">
         <v>32052328</v>
@@ -854,7 +1340,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="C11">
         <v>32052328</v>
@@ -884,7 +1370,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="C12">
         <v>32052328</v>
@@ -914,7 +1400,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="C13">
         <v>32052328</v>
@@ -944,7 +1430,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="C14">
         <v>32052328</v>
@@ -974,7 +1460,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="C15">
         <v>32052328</v>
@@ -1004,7 +1490,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="C16">
         <v>32052328</v>
@@ -1034,7 +1520,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="C17">
         <v>32052328</v>
@@ -1064,7 +1550,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="C18">
         <v>32052328</v>
@@ -1102,34 +1588,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>295</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
@@ -1137,7 +1623,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="C2">
         <v>32281556</v>
@@ -1167,7 +1653,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>273</v>
       </c>
       <c r="C3">
         <v>32281556</v>
@@ -1197,7 +1683,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
       <c r="C4">
         <v>32281556</v>
@@ -1227,7 +1713,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="C5">
         <v>32281556</v>
@@ -1257,7 +1743,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>276</v>
       </c>
       <c r="C6">
         <v>32281556</v>
@@ -1287,7 +1773,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>277</v>
       </c>
       <c r="C7">
         <v>32281556</v>
@@ -1317,7 +1803,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="C8">
         <v>32281556</v>
@@ -1347,7 +1833,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="C9">
         <v>32281556</v>
@@ -1377,7 +1863,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="C10">
         <v>32281556</v>
@@ -1407,7 +1893,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="C11">
         <v>32281556</v>
@@ -1437,7 +1923,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="C12">
         <v>32281556</v>
@@ -1467,7 +1953,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="C13">
         <v>32281556</v>
@@ -1497,7 +1983,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="C14">
         <v>32281556</v>
@@ -1527,7 +2013,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>285</v>
       </c>
       <c r="C15">
         <v>32281556</v>
@@ -1557,7 +2043,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="C16">
         <v>32281556</v>
@@ -1587,7 +2073,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="C17">
         <v>32281556</v>
@@ -1617,7 +2103,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="C18">
         <v>32281556</v>
@@ -1655,34 +2141,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>319</v>
       </c>
       <c r="G1" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
       <c r="H1" t="s">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
@@ -1690,7 +2176,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="C2">
         <v>32552004</v>
@@ -1720,7 +2206,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>32552004</v>
@@ -1750,7 +2236,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="C4">
         <v>32552004</v>
@@ -1780,7 +2266,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>302</v>
       </c>
       <c r="C5">
         <v>32552004</v>
@@ -1810,7 +2296,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="C6">
         <v>32552004</v>
@@ -1840,7 +2326,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>304</v>
       </c>
       <c r="C7">
         <v>32552004</v>
@@ -1870,7 +2356,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="C8">
         <v>32552004</v>
@@ -1900,7 +2386,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="C9">
         <v>32552004</v>
@@ -1930,7 +2416,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>307</v>
       </c>
       <c r="C10">
         <v>32552004</v>
@@ -1960,7 +2446,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>308</v>
       </c>
       <c r="C11">
         <v>32552004</v>
@@ -1990,7 +2476,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>309</v>
       </c>
       <c r="C12">
         <v>32552004</v>
@@ -2020,7 +2506,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>310</v>
       </c>
       <c r="C13">
         <v>32552004</v>
@@ -2050,7 +2536,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>311</v>
       </c>
       <c r="C14">
         <v>32552004</v>
@@ -2080,7 +2566,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="C15">
         <v>32552004</v>
@@ -2110,7 +2596,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="C16">
         <v>32552004</v>
@@ -2140,7 +2626,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="C17">
         <v>32552004</v>
@@ -2170,7 +2656,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="C18">
         <v>32552004</v>

--- a/input_data/admin_data/PER/_clean/total-PER.xlsx
+++ b/input_data/admin_data/PER/_clean/total-PER.xlsx
@@ -15,7 +15,250 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -1035,34 +1278,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>343</v>
       </c>
       <c r="D1" t="s">
-        <v>263</v>
+        <v>344</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="G1" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="H1" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="I1" t="s">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="J1" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
@@ -1070,7 +1313,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>326</v>
       </c>
       <c r="C2">
         <v>32052328</v>
@@ -1100,7 +1343,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="C3">
         <v>32052328</v>
@@ -1130,7 +1373,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="C4">
         <v>32052328</v>
@@ -1160,7 +1403,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>329</v>
       </c>
       <c r="C5">
         <v>32052328</v>
@@ -1190,7 +1433,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="C6">
         <v>32052328</v>
@@ -1220,7 +1463,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="C7">
         <v>32052328</v>
@@ -1250,7 +1493,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="C8">
         <v>32052328</v>
@@ -1280,7 +1523,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="C9">
         <v>32052328</v>
@@ -1310,7 +1553,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="C10">
         <v>32052328</v>
@@ -1340,7 +1583,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="C11">
         <v>32052328</v>
@@ -1370,7 +1613,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
       <c r="C12">
         <v>32052328</v>
@@ -1400,7 +1643,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="C13">
         <v>32052328</v>
@@ -1430,7 +1673,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="C14">
         <v>32052328</v>
@@ -1460,7 +1703,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="C15">
         <v>32052328</v>
@@ -1490,7 +1733,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
       <c r="C16">
         <v>32052328</v>
@@ -1520,7 +1763,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
       <c r="C17">
         <v>32052328</v>
@@ -1550,7 +1793,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>342</v>
       </c>
       <c r="C18">
         <v>32052328</v>
@@ -1588,34 +1831,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="C1" t="s">
-        <v>289</v>
+        <v>370</v>
       </c>
       <c r="D1" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="E1" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="F1" t="s">
-        <v>292</v>
+        <v>373</v>
       </c>
       <c r="G1" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="H1" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="J1" t="s">
-        <v>296</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
@@ -1623,7 +1866,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>353</v>
       </c>
       <c r="C2">
         <v>32281556</v>
@@ -1653,7 +1896,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="C3">
         <v>32281556</v>
@@ -1683,7 +1926,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>355</v>
       </c>
       <c r="C4">
         <v>32281556</v>
@@ -1713,7 +1956,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="C5">
         <v>32281556</v>
@@ -1743,7 +1986,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="C6">
         <v>32281556</v>
@@ -1773,7 +2016,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="C7">
         <v>32281556</v>
@@ -1803,7 +2046,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>359</v>
       </c>
       <c r="C8">
         <v>32281556</v>
@@ -1833,7 +2076,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="C9">
         <v>32281556</v>
@@ -1863,7 +2106,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="C10">
         <v>32281556</v>
@@ -1893,7 +2136,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="C11">
         <v>32281556</v>
@@ -1923,7 +2166,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>363</v>
       </c>
       <c r="C12">
         <v>32281556</v>
@@ -1953,7 +2196,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>364</v>
       </c>
       <c r="C13">
         <v>32281556</v>
@@ -1983,7 +2226,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="C14">
         <v>32281556</v>
@@ -2013,7 +2256,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="C15">
         <v>32281556</v>
@@ -2043,7 +2286,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="C16">
         <v>32281556</v>
@@ -2073,7 +2316,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="C17">
         <v>32281556</v>
@@ -2103,7 +2346,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="C18">
         <v>32281556</v>
@@ -2141,34 +2384,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>378</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>379</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>397</v>
       </c>
       <c r="D1" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="E1" t="s">
-        <v>318</v>
+        <v>399</v>
       </c>
       <c r="F1" t="s">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="G1" t="s">
-        <v>320</v>
+        <v>401</v>
       </c>
       <c r="H1" t="s">
-        <v>321</v>
+        <v>402</v>
       </c>
       <c r="I1" t="s">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="J1" t="s">
-        <v>323</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
@@ -2176,7 +2419,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>380</v>
       </c>
       <c r="C2">
         <v>32552004</v>
@@ -2206,7 +2449,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="C3">
         <v>32552004</v>
@@ -2236,7 +2479,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="C4">
         <v>32552004</v>
@@ -2266,7 +2509,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="C5">
         <v>32552004</v>
@@ -2296,7 +2539,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>384</v>
       </c>
       <c r="C6">
         <v>32552004</v>
@@ -2326,7 +2569,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="C7">
         <v>32552004</v>
@@ -2356,7 +2599,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
       <c r="C8">
         <v>32552004</v>
@@ -2386,7 +2629,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="C9">
         <v>32552004</v>
@@ -2416,7 +2659,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>388</v>
       </c>
       <c r="C10">
         <v>32552004</v>
@@ -2446,7 +2689,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="C11">
         <v>32552004</v>
@@ -2476,7 +2719,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>390</v>
       </c>
       <c r="C12">
         <v>32552004</v>
@@ -2506,7 +2749,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>391</v>
       </c>
       <c r="C13">
         <v>32552004</v>
@@ -2536,7 +2779,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>392</v>
       </c>
       <c r="C14">
         <v>32552004</v>
@@ -2566,7 +2809,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="C15">
         <v>32552004</v>
@@ -2596,7 +2839,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="C16">
         <v>32552004</v>
@@ -2626,7 +2869,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>395</v>
       </c>
       <c r="C17">
         <v>32552004</v>
@@ -2656,7 +2899,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>396</v>
       </c>
       <c r="C18">
         <v>32552004</v>

--- a/input_data/admin_data/PER/_clean/total-PER.xlsx
+++ b/input_data/admin_data/PER/_clean/total-PER.xlsx
@@ -15,7 +15,250 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -1278,34 +1521,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="C1" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="D1" t="s">
-        <v>344</v>
+        <v>425</v>
       </c>
       <c r="E1" t="s">
-        <v>345</v>
+        <v>426</v>
       </c>
       <c r="F1" t="s">
-        <v>346</v>
+        <v>427</v>
       </c>
       <c r="G1" t="s">
-        <v>347</v>
+        <v>428</v>
       </c>
       <c r="H1" t="s">
-        <v>348</v>
+        <v>429</v>
       </c>
       <c r="I1" t="s">
-        <v>349</v>
+        <v>430</v>
       </c>
       <c r="J1" t="s">
-        <v>350</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2">
@@ -1313,7 +1556,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="C2">
         <v>32052328</v>
@@ -1343,7 +1586,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>408</v>
       </c>
       <c r="C3">
         <v>32052328</v>
@@ -1373,7 +1616,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="C4">
         <v>32052328</v>
@@ -1403,7 +1646,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>410</v>
       </c>
       <c r="C5">
         <v>32052328</v>
@@ -1433,7 +1676,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>330</v>
+        <v>411</v>
       </c>
       <c r="C6">
         <v>32052328</v>
@@ -1463,7 +1706,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>412</v>
       </c>
       <c r="C7">
         <v>32052328</v>
@@ -1493,7 +1736,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
       <c r="C8">
         <v>32052328</v>
@@ -1523,7 +1766,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>333</v>
+        <v>414</v>
       </c>
       <c r="C9">
         <v>32052328</v>
@@ -1553,7 +1796,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>415</v>
       </c>
       <c r="C10">
         <v>32052328</v>
@@ -1583,7 +1826,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="C11">
         <v>32052328</v>
@@ -1613,7 +1856,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
       <c r="C12">
         <v>32052328</v>
@@ -1643,7 +1886,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>418</v>
       </c>
       <c r="C13">
         <v>32052328</v>
@@ -1673,7 +1916,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>338</v>
+        <v>419</v>
       </c>
       <c r="C14">
         <v>32052328</v>
@@ -1703,7 +1946,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="C15">
         <v>32052328</v>
@@ -1733,7 +1976,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>340</v>
+        <v>421</v>
       </c>
       <c r="C16">
         <v>32052328</v>
@@ -1763,7 +2006,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>422</v>
       </c>
       <c r="C17">
         <v>32052328</v>
@@ -1793,7 +2036,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>342</v>
+        <v>423</v>
       </c>
       <c r="C18">
         <v>32052328</v>
@@ -1831,34 +2074,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>351</v>
+        <v>432</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>451</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>452</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>453</v>
       </c>
       <c r="F1" t="s">
-        <v>373</v>
+        <v>454</v>
       </c>
       <c r="G1" t="s">
-        <v>374</v>
+        <v>455</v>
       </c>
       <c r="H1" t="s">
-        <v>375</v>
+        <v>456</v>
       </c>
       <c r="I1" t="s">
-        <v>376</v>
+        <v>457</v>
       </c>
       <c r="J1" t="s">
-        <v>377</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2">
@@ -1866,7 +2109,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>434</v>
       </c>
       <c r="C2">
         <v>32281556</v>
@@ -1896,7 +2139,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>435</v>
       </c>
       <c r="C3">
         <v>32281556</v>
@@ -1926,7 +2169,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>436</v>
       </c>
       <c r="C4">
         <v>32281556</v>
@@ -1956,7 +2199,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>437</v>
       </c>
       <c r="C5">
         <v>32281556</v>
@@ -1986,7 +2229,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>438</v>
       </c>
       <c r="C6">
         <v>32281556</v>
@@ -2016,7 +2259,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>439</v>
       </c>
       <c r="C7">
         <v>32281556</v>
@@ -2046,7 +2289,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>440</v>
       </c>
       <c r="C8">
         <v>32281556</v>
@@ -2076,7 +2319,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>441</v>
       </c>
       <c r="C9">
         <v>32281556</v>
@@ -2106,7 +2349,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>442</v>
       </c>
       <c r="C10">
         <v>32281556</v>
@@ -2136,7 +2379,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>443</v>
       </c>
       <c r="C11">
         <v>32281556</v>
@@ -2166,7 +2409,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>444</v>
       </c>
       <c r="C12">
         <v>32281556</v>
@@ -2196,7 +2439,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>364</v>
+        <v>445</v>
       </c>
       <c r="C13">
         <v>32281556</v>
@@ -2226,7 +2469,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>365</v>
+        <v>446</v>
       </c>
       <c r="C14">
         <v>32281556</v>
@@ -2256,7 +2499,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>447</v>
       </c>
       <c r="C15">
         <v>32281556</v>
@@ -2286,7 +2529,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>448</v>
       </c>
       <c r="C16">
         <v>32281556</v>
@@ -2316,7 +2559,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>449</v>
       </c>
       <c r="C17">
         <v>32281556</v>
@@ -2346,7 +2589,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>450</v>
       </c>
       <c r="C18">
         <v>32281556</v>
@@ -2384,34 +2627,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>459</v>
       </c>
       <c r="B1" t="s">
-        <v>379</v>
+        <v>460</v>
       </c>
       <c r="C1" t="s">
-        <v>397</v>
+        <v>478</v>
       </c>
       <c r="D1" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="E1" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="F1" t="s">
-        <v>400</v>
+        <v>481</v>
       </c>
       <c r="G1" t="s">
-        <v>401</v>
+        <v>482</v>
       </c>
       <c r="H1" t="s">
-        <v>402</v>
+        <v>483</v>
       </c>
       <c r="I1" t="s">
-        <v>403</v>
+        <v>484</v>
       </c>
       <c r="J1" t="s">
-        <v>404</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2">
@@ -2419,7 +2662,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>461</v>
       </c>
       <c r="C2">
         <v>32552004</v>
@@ -2449,7 +2692,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>462</v>
       </c>
       <c r="C3">
         <v>32552004</v>
@@ -2479,7 +2722,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>463</v>
       </c>
       <c r="C4">
         <v>32552004</v>
@@ -2509,7 +2752,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>464</v>
       </c>
       <c r="C5">
         <v>32552004</v>
@@ -2539,7 +2782,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>465</v>
       </c>
       <c r="C6">
         <v>32552004</v>
@@ -2569,7 +2812,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>466</v>
       </c>
       <c r="C7">
         <v>32552004</v>
@@ -2599,7 +2842,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>467</v>
       </c>
       <c r="C8">
         <v>32552004</v>
@@ -2629,7 +2872,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>387</v>
+        <v>468</v>
       </c>
       <c r="C9">
         <v>32552004</v>
@@ -2659,7 +2902,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>469</v>
       </c>
       <c r="C10">
         <v>32552004</v>
@@ -2689,7 +2932,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>470</v>
       </c>
       <c r="C11">
         <v>32552004</v>
@@ -2719,7 +2962,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>471</v>
       </c>
       <c r="C12">
         <v>32552004</v>
@@ -2749,7 +2992,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>472</v>
       </c>
       <c r="C13">
         <v>32552004</v>
@@ -2779,7 +3022,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>473</v>
       </c>
       <c r="C14">
         <v>32552004</v>
@@ -2809,7 +3052,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="C15">
         <v>32552004</v>
@@ -2839,7 +3082,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="C16">
         <v>32552004</v>
@@ -2869,7 +3112,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>476</v>
       </c>
       <c r="C17">
         <v>32552004</v>
@@ -2899,7 +3142,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>396</v>
+        <v>477</v>
       </c>
       <c r="C18">
         <v>32552004</v>

--- a/input_data/admin_data/PER/_clean/total-PER.xlsx
+++ b/input_data/admin_data/PER/_clean/total-PER.xlsx
@@ -15,7 +15,1708 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="1053">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -1521,34 +3222,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>972</v>
       </c>
       <c r="B1" t="s">
-        <v>406</v>
+        <v>973</v>
       </c>
       <c r="C1" t="s">
-        <v>424</v>
+        <v>991</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>992</v>
       </c>
       <c r="E1" t="s">
-        <v>426</v>
+        <v>993</v>
       </c>
       <c r="F1" t="s">
-        <v>427</v>
+        <v>994</v>
       </c>
       <c r="G1" t="s">
-        <v>428</v>
+        <v>995</v>
       </c>
       <c r="H1" t="s">
-        <v>429</v>
+        <v>996</v>
       </c>
       <c r="I1" t="s">
-        <v>430</v>
+        <v>997</v>
       </c>
       <c r="J1" t="s">
-        <v>431</v>
+        <v>998</v>
       </c>
     </row>
     <row r="2">
@@ -1556,7 +3257,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>974</v>
       </c>
       <c r="C2">
         <v>32052328</v>
@@ -1586,7 +3287,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>975</v>
       </c>
       <c r="C3">
         <v>32052328</v>
@@ -1616,7 +3317,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>976</v>
       </c>
       <c r="C4">
         <v>32052328</v>
@@ -1646,7 +3347,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>410</v>
+        <v>977</v>
       </c>
       <c r="C5">
         <v>32052328</v>
@@ -1676,7 +3377,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>978</v>
       </c>
       <c r="C6">
         <v>32052328</v>
@@ -1706,7 +3407,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>979</v>
       </c>
       <c r="C7">
         <v>32052328</v>
@@ -1736,7 +3437,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>980</v>
       </c>
       <c r="C8">
         <v>32052328</v>
@@ -1766,7 +3467,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>981</v>
       </c>
       <c r="C9">
         <v>32052328</v>
@@ -1796,7 +3497,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>982</v>
       </c>
       <c r="C10">
         <v>32052328</v>
@@ -1826,7 +3527,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>983</v>
       </c>
       <c r="C11">
         <v>32052328</v>
@@ -1856,7 +3557,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>984</v>
       </c>
       <c r="C12">
         <v>32052328</v>
@@ -1886,7 +3587,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>985</v>
       </c>
       <c r="C13">
         <v>32052328</v>
@@ -1916,7 +3617,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>419</v>
+        <v>986</v>
       </c>
       <c r="C14">
         <v>32052328</v>
@@ -1946,7 +3647,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>420</v>
+        <v>987</v>
       </c>
       <c r="C15">
         <v>32052328</v>
@@ -1976,7 +3677,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>421</v>
+        <v>988</v>
       </c>
       <c r="C16">
         <v>32052328</v>
@@ -2006,7 +3707,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>989</v>
       </c>
       <c r="C17">
         <v>32052328</v>
@@ -2036,7 +3737,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>990</v>
       </c>
       <c r="C18">
         <v>32052328</v>
@@ -2074,34 +3775,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>999</v>
       </c>
       <c r="B1" t="s">
-        <v>433</v>
+        <v>1000</v>
       </c>
       <c r="C1" t="s">
-        <v>451</v>
+        <v>1018</v>
       </c>
       <c r="D1" t="s">
-        <v>452</v>
+        <v>1019</v>
       </c>
       <c r="E1" t="s">
-        <v>453</v>
+        <v>1020</v>
       </c>
       <c r="F1" t="s">
-        <v>454</v>
+        <v>1021</v>
       </c>
       <c r="G1" t="s">
-        <v>455</v>
+        <v>1022</v>
       </c>
       <c r="H1" t="s">
-        <v>456</v>
+        <v>1023</v>
       </c>
       <c r="I1" t="s">
-        <v>457</v>
+        <v>1024</v>
       </c>
       <c r="J1" t="s">
-        <v>458</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2">
@@ -2109,7 +3810,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>1001</v>
       </c>
       <c r="C2">
         <v>32281556</v>
@@ -2139,7 +3840,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>1002</v>
       </c>
       <c r="C3">
         <v>32281556</v>
@@ -2169,7 +3870,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>1003</v>
       </c>
       <c r="C4">
         <v>32281556</v>
@@ -2199,7 +3900,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>1004</v>
       </c>
       <c r="C5">
         <v>32281556</v>
@@ -2229,7 +3930,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>438</v>
+        <v>1005</v>
       </c>
       <c r="C6">
         <v>32281556</v>
@@ -2259,7 +3960,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>1006</v>
       </c>
       <c r="C7">
         <v>32281556</v>
@@ -2289,7 +3990,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>440</v>
+        <v>1007</v>
       </c>
       <c r="C8">
         <v>32281556</v>
@@ -2319,7 +4020,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>441</v>
+        <v>1008</v>
       </c>
       <c r="C9">
         <v>32281556</v>
@@ -2349,7 +4050,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>1009</v>
       </c>
       <c r="C10">
         <v>32281556</v>
@@ -2379,7 +4080,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>1010</v>
       </c>
       <c r="C11">
         <v>32281556</v>
@@ -2409,7 +4110,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>444</v>
+        <v>1011</v>
       </c>
       <c r="C12">
         <v>32281556</v>
@@ -2439,7 +4140,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>445</v>
+        <v>1012</v>
       </c>
       <c r="C13">
         <v>32281556</v>
@@ -2469,7 +4170,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>446</v>
+        <v>1013</v>
       </c>
       <c r="C14">
         <v>32281556</v>
@@ -2499,7 +4200,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>447</v>
+        <v>1014</v>
       </c>
       <c r="C15">
         <v>32281556</v>
@@ -2529,7 +4230,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>448</v>
+        <v>1015</v>
       </c>
       <c r="C16">
         <v>32281556</v>
@@ -2559,7 +4260,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>449</v>
+        <v>1016</v>
       </c>
       <c r="C17">
         <v>32281556</v>
@@ -2589,7 +4290,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>1017</v>
       </c>
       <c r="C18">
         <v>32281556</v>
@@ -2627,34 +4328,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>459</v>
+        <v>1026</v>
       </c>
       <c r="B1" t="s">
-        <v>460</v>
+        <v>1027</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
+        <v>1045</v>
       </c>
       <c r="D1" t="s">
-        <v>479</v>
+        <v>1046</v>
       </c>
       <c r="E1" t="s">
-        <v>480</v>
+        <v>1047</v>
       </c>
       <c r="F1" t="s">
-        <v>481</v>
+        <v>1048</v>
       </c>
       <c r="G1" t="s">
-        <v>482</v>
+        <v>1049</v>
       </c>
       <c r="H1" t="s">
-        <v>483</v>
+        <v>1050</v>
       </c>
       <c r="I1" t="s">
-        <v>484</v>
+        <v>1051</v>
       </c>
       <c r="J1" t="s">
-        <v>485</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="2">
@@ -2662,7 +4363,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>1028</v>
       </c>
       <c r="C2">
         <v>32552004</v>
@@ -2692,7 +4393,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>1029</v>
       </c>
       <c r="C3">
         <v>32552004</v>
@@ -2722,7 +4423,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>1030</v>
       </c>
       <c r="C4">
         <v>32552004</v>
@@ -2752,7 +4453,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>1031</v>
       </c>
       <c r="C5">
         <v>32552004</v>
@@ -2782,7 +4483,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>1032</v>
       </c>
       <c r="C6">
         <v>32552004</v>
@@ -2812,7 +4513,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>1033</v>
       </c>
       <c r="C7">
         <v>32552004</v>
@@ -2842,7 +4543,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>1034</v>
       </c>
       <c r="C8">
         <v>32552004</v>
@@ -2872,7 +4573,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>468</v>
+        <v>1035</v>
       </c>
       <c r="C9">
         <v>32552004</v>
@@ -2902,7 +4603,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>1036</v>
       </c>
       <c r="C10">
         <v>32552004</v>
@@ -2932,7 +4633,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>1037</v>
       </c>
       <c r="C11">
         <v>32552004</v>
@@ -2962,7 +4663,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>471</v>
+        <v>1038</v>
       </c>
       <c r="C12">
         <v>32552004</v>
@@ -2992,7 +4693,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>472</v>
+        <v>1039</v>
       </c>
       <c r="C13">
         <v>32552004</v>
@@ -3022,7 +4723,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>473</v>
+        <v>1040</v>
       </c>
       <c r="C14">
         <v>32552004</v>
@@ -3052,7 +4753,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>474</v>
+        <v>1041</v>
       </c>
       <c r="C15">
         <v>32552004</v>
@@ -3082,7 +4783,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>475</v>
+        <v>1042</v>
       </c>
       <c r="C16">
         <v>32552004</v>
@@ -3112,7 +4813,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>476</v>
+        <v>1043</v>
       </c>
       <c r="C17">
         <v>32552004</v>
@@ -3142,7 +4843,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>477</v>
+        <v>1044</v>
       </c>
       <c r="C18">
         <v>32552004</v>

--- a/input_data/admin_data/PER/_clean/total-PER.xlsx
+++ b/input_data/admin_data/PER/_clean/total-PER.xlsx
@@ -15,7 +15,736 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="1296">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -3222,34 +3951,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>972</v>
+        <v>1215</v>
       </c>
       <c r="B1" t="s">
-        <v>973</v>
+        <v>1216</v>
       </c>
       <c r="C1" t="s">
-        <v>991</v>
+        <v>1234</v>
       </c>
       <c r="D1" t="s">
-        <v>992</v>
+        <v>1235</v>
       </c>
       <c r="E1" t="s">
-        <v>993</v>
+        <v>1236</v>
       </c>
       <c r="F1" t="s">
-        <v>994</v>
+        <v>1237</v>
       </c>
       <c r="G1" t="s">
-        <v>995</v>
+        <v>1238</v>
       </c>
       <c r="H1" t="s">
-        <v>996</v>
+        <v>1239</v>
       </c>
       <c r="I1" t="s">
-        <v>997</v>
+        <v>1240</v>
       </c>
       <c r="J1" t="s">
-        <v>998</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="2">
@@ -3257,7 +3986,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>974</v>
+        <v>1217</v>
       </c>
       <c r="C2">
         <v>32052328</v>
@@ -3287,7 +4016,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>975</v>
+        <v>1218</v>
       </c>
       <c r="C3">
         <v>32052328</v>
@@ -3317,7 +4046,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>976</v>
+        <v>1219</v>
       </c>
       <c r="C4">
         <v>32052328</v>
@@ -3347,7 +4076,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>977</v>
+        <v>1220</v>
       </c>
       <c r="C5">
         <v>32052328</v>
@@ -3377,7 +4106,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>978</v>
+        <v>1221</v>
       </c>
       <c r="C6">
         <v>32052328</v>
@@ -3407,7 +4136,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>979</v>
+        <v>1222</v>
       </c>
       <c r="C7">
         <v>32052328</v>
@@ -3437,7 +4166,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>980</v>
+        <v>1223</v>
       </c>
       <c r="C8">
         <v>32052328</v>
@@ -3467,7 +4196,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>981</v>
+        <v>1224</v>
       </c>
       <c r="C9">
         <v>32052328</v>
@@ -3497,7 +4226,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>982</v>
+        <v>1225</v>
       </c>
       <c r="C10">
         <v>32052328</v>
@@ -3527,7 +4256,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>983</v>
+        <v>1226</v>
       </c>
       <c r="C11">
         <v>32052328</v>
@@ -3557,7 +4286,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>984</v>
+        <v>1227</v>
       </c>
       <c r="C12">
         <v>32052328</v>
@@ -3587,7 +4316,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>985</v>
+        <v>1228</v>
       </c>
       <c r="C13">
         <v>32052328</v>
@@ -3617,7 +4346,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>986</v>
+        <v>1229</v>
       </c>
       <c r="C14">
         <v>32052328</v>
@@ -3647,7 +4376,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>987</v>
+        <v>1230</v>
       </c>
       <c r="C15">
         <v>32052328</v>
@@ -3677,7 +4406,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>988</v>
+        <v>1231</v>
       </c>
       <c r="C16">
         <v>32052328</v>
@@ -3707,7 +4436,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>989</v>
+        <v>1232</v>
       </c>
       <c r="C17">
         <v>32052328</v>
@@ -3737,7 +4466,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>990</v>
+        <v>1233</v>
       </c>
       <c r="C18">
         <v>32052328</v>
@@ -3775,34 +4504,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>999</v>
+        <v>1242</v>
       </c>
       <c r="B1" t="s">
-        <v>1000</v>
+        <v>1243</v>
       </c>
       <c r="C1" t="s">
-        <v>1018</v>
+        <v>1261</v>
       </c>
       <c r="D1" t="s">
-        <v>1019</v>
+        <v>1262</v>
       </c>
       <c r="E1" t="s">
-        <v>1020</v>
+        <v>1263</v>
       </c>
       <c r="F1" t="s">
-        <v>1021</v>
+        <v>1264</v>
       </c>
       <c r="G1" t="s">
-        <v>1022</v>
+        <v>1265</v>
       </c>
       <c r="H1" t="s">
-        <v>1023</v>
+        <v>1266</v>
       </c>
       <c r="I1" t="s">
-        <v>1024</v>
+        <v>1267</v>
       </c>
       <c r="J1" t="s">
-        <v>1025</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="2">
@@ -3810,7 +4539,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>1001</v>
+        <v>1244</v>
       </c>
       <c r="C2">
         <v>32281556</v>
@@ -3840,7 +4569,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1002</v>
+        <v>1245</v>
       </c>
       <c r="C3">
         <v>32281556</v>
@@ -3870,7 +4599,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1003</v>
+        <v>1246</v>
       </c>
       <c r="C4">
         <v>32281556</v>
@@ -3900,7 +4629,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1004</v>
+        <v>1247</v>
       </c>
       <c r="C5">
         <v>32281556</v>
@@ -3930,7 +4659,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1005</v>
+        <v>1248</v>
       </c>
       <c r="C6">
         <v>32281556</v>
@@ -3960,7 +4689,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1006</v>
+        <v>1249</v>
       </c>
       <c r="C7">
         <v>32281556</v>
@@ -3990,7 +4719,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1007</v>
+        <v>1250</v>
       </c>
       <c r="C8">
         <v>32281556</v>
@@ -4020,7 +4749,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1008</v>
+        <v>1251</v>
       </c>
       <c r="C9">
         <v>32281556</v>
@@ -4050,7 +4779,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1009</v>
+        <v>1252</v>
       </c>
       <c r="C10">
         <v>32281556</v>
@@ -4080,7 +4809,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1010</v>
+        <v>1253</v>
       </c>
       <c r="C11">
         <v>32281556</v>
@@ -4110,7 +4839,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>1011</v>
+        <v>1254</v>
       </c>
       <c r="C12">
         <v>32281556</v>
@@ -4140,7 +4869,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>1012</v>
+        <v>1255</v>
       </c>
       <c r="C13">
         <v>32281556</v>
@@ -4170,7 +4899,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1013</v>
+        <v>1256</v>
       </c>
       <c r="C14">
         <v>32281556</v>
@@ -4200,7 +4929,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1014</v>
+        <v>1257</v>
       </c>
       <c r="C15">
         <v>32281556</v>
@@ -4230,7 +4959,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1015</v>
+        <v>1258</v>
       </c>
       <c r="C16">
         <v>32281556</v>
@@ -4260,7 +4989,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1016</v>
+        <v>1259</v>
       </c>
       <c r="C17">
         <v>32281556</v>
@@ -4290,7 +5019,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1017</v>
+        <v>1260</v>
       </c>
       <c r="C18">
         <v>32281556</v>
@@ -4328,34 +5057,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1026</v>
+        <v>1269</v>
       </c>
       <c r="B1" t="s">
-        <v>1027</v>
+        <v>1270</v>
       </c>
       <c r="C1" t="s">
-        <v>1045</v>
+        <v>1288</v>
       </c>
       <c r="D1" t="s">
-        <v>1046</v>
+        <v>1289</v>
       </c>
       <c r="E1" t="s">
-        <v>1047</v>
+        <v>1290</v>
       </c>
       <c r="F1" t="s">
-        <v>1048</v>
+        <v>1291</v>
       </c>
       <c r="G1" t="s">
-        <v>1049</v>
+        <v>1292</v>
       </c>
       <c r="H1" t="s">
-        <v>1050</v>
+        <v>1293</v>
       </c>
       <c r="I1" t="s">
-        <v>1051</v>
+        <v>1294</v>
       </c>
       <c r="J1" t="s">
-        <v>1052</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2">
@@ -4363,7 +5092,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>1028</v>
+        <v>1271</v>
       </c>
       <c r="C2">
         <v>32552004</v>
@@ -4393,7 +5122,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1029</v>
+        <v>1272</v>
       </c>
       <c r="C3">
         <v>32552004</v>
@@ -4423,7 +5152,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1030</v>
+        <v>1273</v>
       </c>
       <c r="C4">
         <v>32552004</v>
@@ -4453,7 +5182,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1031</v>
+        <v>1274</v>
       </c>
       <c r="C5">
         <v>32552004</v>
@@ -4483,7 +5212,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1032</v>
+        <v>1275</v>
       </c>
       <c r="C6">
         <v>32552004</v>
@@ -4513,7 +5242,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1033</v>
+        <v>1276</v>
       </c>
       <c r="C7">
         <v>32552004</v>
@@ -4543,7 +5272,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1034</v>
+        <v>1277</v>
       </c>
       <c r="C8">
         <v>32552004</v>
@@ -4573,7 +5302,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1035</v>
+        <v>1278</v>
       </c>
       <c r="C9">
         <v>32552004</v>
@@ -4603,7 +5332,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1036</v>
+        <v>1279</v>
       </c>
       <c r="C10">
         <v>32552004</v>
@@ -4633,7 +5362,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1037</v>
+        <v>1280</v>
       </c>
       <c r="C11">
         <v>32552004</v>
@@ -4663,7 +5392,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>1038</v>
+        <v>1281</v>
       </c>
       <c r="C12">
         <v>32552004</v>
@@ -4693,7 +5422,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>1039</v>
+        <v>1282</v>
       </c>
       <c r="C13">
         <v>32552004</v>
@@ -4723,7 +5452,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1040</v>
+        <v>1283</v>
       </c>
       <c r="C14">
         <v>32552004</v>
@@ -4753,7 +5482,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1041</v>
+        <v>1284</v>
       </c>
       <c r="C15">
         <v>32552004</v>
@@ -4783,7 +5512,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1042</v>
+        <v>1285</v>
       </c>
       <c r="C16">
         <v>32552004</v>
@@ -4813,7 +5542,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1043</v>
+        <v>1286</v>
       </c>
       <c r="C17">
         <v>32552004</v>
@@ -4843,7 +5572,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1044</v>
+        <v>1287</v>
       </c>
       <c r="C18">
         <v>32552004</v>

--- a/input_data/admin_data/PER/_clean/total-PER.xlsx
+++ b/input_data/admin_data/PER/_clean/total-PER.xlsx
@@ -15,7 +15,250 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1377">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -3951,34 +4194,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1215</v>
+        <v>1296</v>
       </c>
       <c r="B1" t="s">
-        <v>1216</v>
+        <v>1297</v>
       </c>
       <c r="C1" t="s">
-        <v>1234</v>
+        <v>1315</v>
       </c>
       <c r="D1" t="s">
-        <v>1235</v>
+        <v>1316</v>
       </c>
       <c r="E1" t="s">
-        <v>1236</v>
+        <v>1317</v>
       </c>
       <c r="F1" t="s">
-        <v>1237</v>
+        <v>1318</v>
       </c>
       <c r="G1" t="s">
-        <v>1238</v>
+        <v>1319</v>
       </c>
       <c r="H1" t="s">
-        <v>1239</v>
+        <v>1320</v>
       </c>
       <c r="I1" t="s">
-        <v>1240</v>
+        <v>1321</v>
       </c>
       <c r="J1" t="s">
-        <v>1241</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="2">
@@ -3986,7 +4229,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>1217</v>
+        <v>1298</v>
       </c>
       <c r="C2">
         <v>32052328</v>
@@ -4016,7 +4259,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1218</v>
+        <v>1299</v>
       </c>
       <c r="C3">
         <v>32052328</v>
@@ -4046,7 +4289,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1219</v>
+        <v>1300</v>
       </c>
       <c r="C4">
         <v>32052328</v>
@@ -4076,7 +4319,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1220</v>
+        <v>1301</v>
       </c>
       <c r="C5">
         <v>32052328</v>
@@ -4106,7 +4349,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1221</v>
+        <v>1302</v>
       </c>
       <c r="C6">
         <v>32052328</v>
@@ -4136,7 +4379,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1222</v>
+        <v>1303</v>
       </c>
       <c r="C7">
         <v>32052328</v>
@@ -4166,7 +4409,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1223</v>
+        <v>1304</v>
       </c>
       <c r="C8">
         <v>32052328</v>
@@ -4196,7 +4439,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1224</v>
+        <v>1305</v>
       </c>
       <c r="C9">
         <v>32052328</v>
@@ -4226,7 +4469,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1225</v>
+        <v>1306</v>
       </c>
       <c r="C10">
         <v>32052328</v>
@@ -4256,7 +4499,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1226</v>
+        <v>1307</v>
       </c>
       <c r="C11">
         <v>32052328</v>
@@ -4286,7 +4529,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>1227</v>
+        <v>1308</v>
       </c>
       <c r="C12">
         <v>32052328</v>
@@ -4316,7 +4559,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>1228</v>
+        <v>1309</v>
       </c>
       <c r="C13">
         <v>32052328</v>
@@ -4346,7 +4589,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1229</v>
+        <v>1310</v>
       </c>
       <c r="C14">
         <v>32052328</v>
@@ -4376,7 +4619,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1230</v>
+        <v>1311</v>
       </c>
       <c r="C15">
         <v>32052328</v>
@@ -4406,7 +4649,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1231</v>
+        <v>1312</v>
       </c>
       <c r="C16">
         <v>32052328</v>
@@ -4436,7 +4679,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1232</v>
+        <v>1313</v>
       </c>
       <c r="C17">
         <v>32052328</v>
@@ -4466,7 +4709,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1233</v>
+        <v>1314</v>
       </c>
       <c r="C18">
         <v>32052328</v>
@@ -4504,34 +4747,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1242</v>
+        <v>1323</v>
       </c>
       <c r="B1" t="s">
-        <v>1243</v>
+        <v>1324</v>
       </c>
       <c r="C1" t="s">
-        <v>1261</v>
+        <v>1342</v>
       </c>
       <c r="D1" t="s">
-        <v>1262</v>
+        <v>1343</v>
       </c>
       <c r="E1" t="s">
-        <v>1263</v>
+        <v>1344</v>
       </c>
       <c r="F1" t="s">
-        <v>1264</v>
+        <v>1345</v>
       </c>
       <c r="G1" t="s">
-        <v>1265</v>
+        <v>1346</v>
       </c>
       <c r="H1" t="s">
-        <v>1266</v>
+        <v>1347</v>
       </c>
       <c r="I1" t="s">
-        <v>1267</v>
+        <v>1348</v>
       </c>
       <c r="J1" t="s">
-        <v>1268</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2">
@@ -4539,7 +4782,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>1244</v>
+        <v>1325</v>
       </c>
       <c r="C2">
         <v>32281556</v>
@@ -4569,7 +4812,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1245</v>
+        <v>1326</v>
       </c>
       <c r="C3">
         <v>32281556</v>
@@ -4599,7 +4842,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1246</v>
+        <v>1327</v>
       </c>
       <c r="C4">
         <v>32281556</v>
@@ -4629,7 +4872,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1247</v>
+        <v>1328</v>
       </c>
       <c r="C5">
         <v>32281556</v>
@@ -4659,7 +4902,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1248</v>
+        <v>1329</v>
       </c>
       <c r="C6">
         <v>32281556</v>
@@ -4689,7 +4932,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1249</v>
+        <v>1330</v>
       </c>
       <c r="C7">
         <v>32281556</v>
@@ -4719,7 +4962,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1250</v>
+        <v>1331</v>
       </c>
       <c r="C8">
         <v>32281556</v>
@@ -4749,7 +4992,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1251</v>
+        <v>1332</v>
       </c>
       <c r="C9">
         <v>32281556</v>
@@ -4779,7 +5022,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1252</v>
+        <v>1333</v>
       </c>
       <c r="C10">
         <v>32281556</v>
@@ -4809,7 +5052,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1253</v>
+        <v>1334</v>
       </c>
       <c r="C11">
         <v>32281556</v>
@@ -4839,7 +5082,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>1254</v>
+        <v>1335</v>
       </c>
       <c r="C12">
         <v>32281556</v>
@@ -4869,7 +5112,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>1255</v>
+        <v>1336</v>
       </c>
       <c r="C13">
         <v>32281556</v>
@@ -4899,7 +5142,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1256</v>
+        <v>1337</v>
       </c>
       <c r="C14">
         <v>32281556</v>
@@ -4929,7 +5172,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1257</v>
+        <v>1338</v>
       </c>
       <c r="C15">
         <v>32281556</v>
@@ -4959,7 +5202,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1258</v>
+        <v>1339</v>
       </c>
       <c r="C16">
         <v>32281556</v>
@@ -4989,7 +5232,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1259</v>
+        <v>1340</v>
       </c>
       <c r="C17">
         <v>32281556</v>
@@ -5019,7 +5262,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1260</v>
+        <v>1341</v>
       </c>
       <c r="C18">
         <v>32281556</v>
@@ -5057,34 +5300,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1269</v>
+        <v>1350</v>
       </c>
       <c r="B1" t="s">
-        <v>1270</v>
+        <v>1351</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1369</v>
       </c>
       <c r="D1" t="s">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="E1" t="s">
-        <v>1290</v>
+        <v>1371</v>
       </c>
       <c r="F1" t="s">
-        <v>1291</v>
+        <v>1372</v>
       </c>
       <c r="G1" t="s">
-        <v>1292</v>
+        <v>1373</v>
       </c>
       <c r="H1" t="s">
-        <v>1293</v>
+        <v>1374</v>
       </c>
       <c r="I1" t="s">
-        <v>1294</v>
+        <v>1375</v>
       </c>
       <c r="J1" t="s">
-        <v>1295</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2">
@@ -5092,7 +5335,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>1271</v>
+        <v>1352</v>
       </c>
       <c r="C2">
         <v>32552004</v>
@@ -5122,7 +5365,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1272</v>
+        <v>1353</v>
       </c>
       <c r="C3">
         <v>32552004</v>
@@ -5152,7 +5395,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1273</v>
+        <v>1354</v>
       </c>
       <c r="C4">
         <v>32552004</v>
@@ -5182,7 +5425,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1274</v>
+        <v>1355</v>
       </c>
       <c r="C5">
         <v>32552004</v>
@@ -5212,7 +5455,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1275</v>
+        <v>1356</v>
       </c>
       <c r="C6">
         <v>32552004</v>
@@ -5242,7 +5485,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1276</v>
+        <v>1357</v>
       </c>
       <c r="C7">
         <v>32552004</v>
@@ -5272,7 +5515,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1277</v>
+        <v>1358</v>
       </c>
       <c r="C8">
         <v>32552004</v>
@@ -5302,7 +5545,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1278</v>
+        <v>1359</v>
       </c>
       <c r="C9">
         <v>32552004</v>
@@ -5332,7 +5575,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1279</v>
+        <v>1360</v>
       </c>
       <c r="C10">
         <v>32552004</v>
@@ -5362,7 +5605,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1280</v>
+        <v>1361</v>
       </c>
       <c r="C11">
         <v>32552004</v>
@@ -5392,7 +5635,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>1281</v>
+        <v>1362</v>
       </c>
       <c r="C12">
         <v>32552004</v>
@@ -5422,7 +5665,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>1282</v>
+        <v>1363</v>
       </c>
       <c r="C13">
         <v>32552004</v>
@@ -5452,7 +5695,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1283</v>
+        <v>1364</v>
       </c>
       <c r="C14">
         <v>32552004</v>
@@ -5482,7 +5725,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1284</v>
+        <v>1365</v>
       </c>
       <c r="C15">
         <v>32552004</v>
@@ -5512,7 +5755,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1285</v>
+        <v>1366</v>
       </c>
       <c r="C16">
         <v>32552004</v>
@@ -5542,7 +5785,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1286</v>
+        <v>1367</v>
       </c>
       <c r="C17">
         <v>32552004</v>
@@ -5572,7 +5815,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1287</v>
+        <v>1368</v>
       </c>
       <c r="C18">
         <v>32552004</v>

--- a/input_data/admin_data/PER/_clean/total-PER.xlsx
+++ b/input_data/admin_data/PER/_clean/total-PER.xlsx
@@ -15,7 +15,979 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1701">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>sh_rent</t>
+  </si>
+  <si>
+    <t>sh_capital</t>
+  </si>
+  <si>
+    <t>sh_labour</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -4194,34 +5166,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1296</v>
+        <v>1620</v>
       </c>
       <c r="B1" t="s">
-        <v>1297</v>
+        <v>1621</v>
       </c>
       <c r="C1" t="s">
-        <v>1315</v>
+        <v>1639</v>
       </c>
       <c r="D1" t="s">
-        <v>1316</v>
+        <v>1640</v>
       </c>
       <c r="E1" t="s">
-        <v>1317</v>
+        <v>1641</v>
       </c>
       <c r="F1" t="s">
-        <v>1318</v>
+        <v>1642</v>
       </c>
       <c r="G1" t="s">
-        <v>1319</v>
+        <v>1643</v>
       </c>
       <c r="H1" t="s">
-        <v>1320</v>
+        <v>1644</v>
       </c>
       <c r="I1" t="s">
-        <v>1321</v>
+        <v>1645</v>
       </c>
       <c r="J1" t="s">
-        <v>1322</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="2">
@@ -4229,7 +5201,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>1298</v>
+        <v>1622</v>
       </c>
       <c r="C2">
         <v>32052328</v>
@@ -4259,7 +5231,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1299</v>
+        <v>1623</v>
       </c>
       <c r="C3">
         <v>32052328</v>
@@ -4289,7 +5261,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1300</v>
+        <v>1624</v>
       </c>
       <c r="C4">
         <v>32052328</v>
@@ -4319,7 +5291,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1301</v>
+        <v>1625</v>
       </c>
       <c r="C5">
         <v>32052328</v>
@@ -4349,7 +5321,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1302</v>
+        <v>1626</v>
       </c>
       <c r="C6">
         <v>32052328</v>
@@ -4379,7 +5351,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1303</v>
+        <v>1627</v>
       </c>
       <c r="C7">
         <v>32052328</v>
@@ -4409,7 +5381,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1304</v>
+        <v>1628</v>
       </c>
       <c r="C8">
         <v>32052328</v>
@@ -4439,7 +5411,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1305</v>
+        <v>1629</v>
       </c>
       <c r="C9">
         <v>32052328</v>
@@ -4469,7 +5441,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1306</v>
+        <v>1630</v>
       </c>
       <c r="C10">
         <v>32052328</v>
@@ -4499,7 +5471,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1307</v>
+        <v>1631</v>
       </c>
       <c r="C11">
         <v>32052328</v>
@@ -4529,7 +5501,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>1308</v>
+        <v>1632</v>
       </c>
       <c r="C12">
         <v>32052328</v>
@@ -4559,7 +5531,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>1309</v>
+        <v>1633</v>
       </c>
       <c r="C13">
         <v>32052328</v>
@@ -4589,7 +5561,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1310</v>
+        <v>1634</v>
       </c>
       <c r="C14">
         <v>32052328</v>
@@ -4619,7 +5591,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1311</v>
+        <v>1635</v>
       </c>
       <c r="C15">
         <v>32052328</v>
@@ -4649,7 +5621,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1312</v>
+        <v>1636</v>
       </c>
       <c r="C16">
         <v>32052328</v>
@@ -4679,7 +5651,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1313</v>
+        <v>1637</v>
       </c>
       <c r="C17">
         <v>32052328</v>
@@ -4709,7 +5681,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1314</v>
+        <v>1638</v>
       </c>
       <c r="C18">
         <v>32052328</v>
@@ -4747,34 +5719,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1323</v>
+        <v>1647</v>
       </c>
       <c r="B1" t="s">
-        <v>1324</v>
+        <v>1648</v>
       </c>
       <c r="C1" t="s">
-        <v>1342</v>
+        <v>1666</v>
       </c>
       <c r="D1" t="s">
-        <v>1343</v>
+        <v>1667</v>
       </c>
       <c r="E1" t="s">
-        <v>1344</v>
+        <v>1668</v>
       </c>
       <c r="F1" t="s">
-        <v>1345</v>
+        <v>1669</v>
       </c>
       <c r="G1" t="s">
-        <v>1346</v>
+        <v>1670</v>
       </c>
       <c r="H1" t="s">
-        <v>1347</v>
+        <v>1671</v>
       </c>
       <c r="I1" t="s">
-        <v>1348</v>
+        <v>1672</v>
       </c>
       <c r="J1" t="s">
-        <v>1349</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="2">
@@ -4782,7 +5754,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>1325</v>
+        <v>1649</v>
       </c>
       <c r="C2">
         <v>32281556</v>
@@ -4812,7 +5784,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1326</v>
+        <v>1650</v>
       </c>
       <c r="C3">
         <v>32281556</v>
@@ -4842,7 +5814,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1327</v>
+        <v>1651</v>
       </c>
       <c r="C4">
         <v>32281556</v>
@@ -4872,7 +5844,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1328</v>
+        <v>1652</v>
       </c>
       <c r="C5">
         <v>32281556</v>
@@ -4902,7 +5874,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1329</v>
+        <v>1653</v>
       </c>
       <c r="C6">
         <v>32281556</v>
@@ -4932,7 +5904,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1330</v>
+        <v>1654</v>
       </c>
       <c r="C7">
         <v>32281556</v>
@@ -4962,7 +5934,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1331</v>
+        <v>1655</v>
       </c>
       <c r="C8">
         <v>32281556</v>
@@ -4992,7 +5964,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1332</v>
+        <v>1656</v>
       </c>
       <c r="C9">
         <v>32281556</v>
@@ -5022,7 +5994,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1333</v>
+        <v>1657</v>
       </c>
       <c r="C10">
         <v>32281556</v>
@@ -5052,7 +6024,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1334</v>
+        <v>1658</v>
       </c>
       <c r="C11">
         <v>32281556</v>
@@ -5082,7 +6054,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>1335</v>
+        <v>1659</v>
       </c>
       <c r="C12">
         <v>32281556</v>
@@ -5112,7 +6084,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>1336</v>
+        <v>1660</v>
       </c>
       <c r="C13">
         <v>32281556</v>
@@ -5142,7 +6114,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1337</v>
+        <v>1661</v>
       </c>
       <c r="C14">
         <v>32281556</v>
@@ -5172,7 +6144,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1338</v>
+        <v>1662</v>
       </c>
       <c r="C15">
         <v>32281556</v>
@@ -5202,7 +6174,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1339</v>
+        <v>1663</v>
       </c>
       <c r="C16">
         <v>32281556</v>
@@ -5232,7 +6204,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1340</v>
+        <v>1664</v>
       </c>
       <c r="C17">
         <v>32281556</v>
@@ -5262,7 +6234,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1341</v>
+        <v>1665</v>
       </c>
       <c r="C18">
         <v>32281556</v>
@@ -5300,34 +6272,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1350</v>
+        <v>1674</v>
       </c>
       <c r="B1" t="s">
-        <v>1351</v>
+        <v>1675</v>
       </c>
       <c r="C1" t="s">
-        <v>1369</v>
+        <v>1693</v>
       </c>
       <c r="D1" t="s">
-        <v>1370</v>
+        <v>1694</v>
       </c>
       <c r="E1" t="s">
-        <v>1371</v>
+        <v>1695</v>
       </c>
       <c r="F1" t="s">
-        <v>1372</v>
+        <v>1696</v>
       </c>
       <c r="G1" t="s">
-        <v>1373</v>
+        <v>1697</v>
       </c>
       <c r="H1" t="s">
-        <v>1374</v>
+        <v>1698</v>
       </c>
       <c r="I1" t="s">
-        <v>1375</v>
+        <v>1699</v>
       </c>
       <c r="J1" t="s">
-        <v>1376</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="2">
@@ -5335,7 +6307,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>1352</v>
+        <v>1676</v>
       </c>
       <c r="C2">
         <v>32552004</v>
@@ -5365,7 +6337,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1353</v>
+        <v>1677</v>
       </c>
       <c r="C3">
         <v>32552004</v>
@@ -5395,7 +6367,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1354</v>
+        <v>1678</v>
       </c>
       <c r="C4">
         <v>32552004</v>
@@ -5425,7 +6397,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1355</v>
+        <v>1679</v>
       </c>
       <c r="C5">
         <v>32552004</v>
@@ -5455,7 +6427,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1356</v>
+        <v>1680</v>
       </c>
       <c r="C6">
         <v>32552004</v>
@@ -5485,7 +6457,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1357</v>
+        <v>1681</v>
       </c>
       <c r="C7">
         <v>32552004</v>
@@ -5515,7 +6487,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1358</v>
+        <v>1682</v>
       </c>
       <c r="C8">
         <v>32552004</v>
@@ -5545,7 +6517,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1359</v>
+        <v>1683</v>
       </c>
       <c r="C9">
         <v>32552004</v>
@@ -5575,7 +6547,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1360</v>
+        <v>1684</v>
       </c>
       <c r="C10">
         <v>32552004</v>
@@ -5605,7 +6577,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1361</v>
+        <v>1685</v>
       </c>
       <c r="C11">
         <v>32552004</v>
@@ -5635,7 +6607,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>1362</v>
+        <v>1686</v>
       </c>
       <c r="C12">
         <v>32552004</v>
@@ -5665,7 +6637,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>1363</v>
+        <v>1687</v>
       </c>
       <c r="C13">
         <v>32552004</v>
@@ -5695,7 +6667,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1364</v>
+        <v>1688</v>
       </c>
       <c r="C14">
         <v>32552004</v>
@@ -5725,7 +6697,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1365</v>
+        <v>1689</v>
       </c>
       <c r="C15">
         <v>32552004</v>
@@ -5755,7 +6727,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1366</v>
+        <v>1690</v>
       </c>
       <c r="C16">
         <v>32552004</v>
@@ -5785,7 +6757,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1367</v>
+        <v>1691</v>
       </c>
       <c r="C17">
         <v>32552004</v>
@@ -5815,7 +6787,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1368</v>
+        <v>1692</v>
       </c>
       <c r="C18">
         <v>32552004</v>
